--- a/bots/crawl_ch/output/toilet_coop_2022-07-18.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -855,65 +855,65 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6817198</t>
+          <t>4695684</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 16 Rollen</t>
+          <t>Tempo Toilettenpapier 5-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/zewa-wisch-weg-haushaltspapier-weiss-16-rollen/p/6817198</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-5-lagig-9-rollen/p/4695684</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22.00/1ST</t>
+          <t>1.11/1Rol</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 16 Rollen 22.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier 5-lagig 9 Rollen 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1001,65 +1001,65 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4695684</t>
+          <t>6817198</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier 5-lagig 9 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 16 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-5-lagig-9-rollen/p/4695684</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/zewa-wisch-weg-haushaltspapier-weiss-16-rollen/p/6817198</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.11/1Rol</t>
+          <t>10.95/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier 5-lagig 9 Rollen 9.95 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 16 Rollen 50% Aktion 10.95 Schweizer Franken statt 22.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1131,50 +1131,50 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6497246</t>
+          <t>6346775</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Prestige FSC 4-lagig 32 Rollen</t>
+          <t>Tempo Premium 4-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-prestige-fsc-4-lagig-32-rollen/p/6497246</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.48/1Rol</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1199,142 +1199,142 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Prestige FSC 4-lagig 32 Rollen 40% Aktion 15.50 Schweizer Franken statt 25.85 Schweizer Franken</t>
+          <t>Tempo Premium 4-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6498201</t>
+          <t>6497246</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 12 Rollen</t>
+          <t>Super Soft WC-Papier Prestige FSC 4-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-12-rollen/p/6498201</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-prestige-fsc-4-lagig-32-rollen/p/6497246</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>600BLT</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.48/1Rol</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.40 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Prestige FSC 4-lagig 32 Rollen 40% Aktion 15.50 Schweizer Franken statt 25.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6346775</t>
+          <t>6498201</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen</t>
+          <t>subito Haushaltspapier weiss 12 Rollen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-12-rollen/p/6498201</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>600BLT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.25</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.97/1Rol</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2073,210 +2073,210 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4403154</t>
+          <t>5985677</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen</t>
+          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-pflegende-sauberkeit-4-lagig-9-rollen/p/4403154</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-aloe-sanft-sensitiv/p/5985677</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.99/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen 8.90 Schweizer Franken</t>
+          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5939634</t>
+          <t>4403154</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kleenex Box Collection</t>
+          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-box-collection/p/5939634</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-pflegende-sauberkeit-4-lagig-9-rollen/p/4403154</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48BLT</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F26" t="n">
         <v>4.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.99/1Rol</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kleenex Box Collection 2.20 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Pflegende Sauberkeit 4-lagig 9 Rollen 8.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5985677</t>
+          <t>5939634</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST</t>
+          <t>Kleenex Box Collection</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-aloe-sanft-sensitiv/p/5985677</t>
+          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-box-collection/p/5939634</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>48BLT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tempo feucht Aloe sanft &amp;amp; sensitiv 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Kleenex Box Collection 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2974,36 +2974,36 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4489513</t>
+          <t>5985680</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
+          <t>Tempo feucht Kamille sanft &amp;amp; pflegend 3x  42ST</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-kamille-sanft-pflegend/p/5985680</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3012,59 +3012,59 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo feucht Kamille sanft &amp;amp; pflegend 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6384992</t>
+          <t>4489513</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-kamille-aloe-vera-4-lagig-32-rollen/p/6384992</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-white-3-lagig-32-rollen/p/4489513</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
@@ -3115,41 +3115,41 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier white 3-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5985680</t>
+          <t>6384992</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tempo feucht Kamille sanft &amp;amp; pflegend 3x  42ST</t>
+          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-kamille-sanft-pflegend/p/5985680</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-kamille-aloe-vera-4-lagig-32-rollen/p/6384992</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3158,42 +3158,42 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tempo feucht Kamille sanft &amp;amp; pflegend 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium Kamille &amp;amp; Aloe Vera 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4147,50 +4147,48 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6283674</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-goldmelisse-blau-3-lagig-12-rollen/p/6283674</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>19</v>
-      </c>
+          <t>30Rol</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.63/1Rol</t>
+          <t>0.47/1Rol</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4200,7 +4198,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4215,140 +4213,142 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen 7.50 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4125542</t>
+          <t>6283674</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen</t>
+          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-short-smart-4-rollen/p/4125542</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-goldmelisse-blau-3-lagig-12-rollen/p/6283674</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>296BLT</t>
+          <t>12Rol</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F56" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.63/1Rol</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen 6.70 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Goldmelisse blau 3-lagig 12 Rollen 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>4125542</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-haushaltpapier-white-short-smart-4-rollen/p/4125542</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>296BLT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>18</v>
+      </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0.47/1Rol</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
+          <t>Plenty Haushaltpapier White Short &amp;amp; Smart 4 Rollen 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4859,135 +4859,135 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.91/1Rol</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0.91/1Rol</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5352,36 +5352,36 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>3x 42ST</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5390,12 +5390,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.40/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5415,46 +5415,46 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3x 42ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5463,12 +5463,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.40/1ST</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5488,17 +5488,17 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3x  42ST 33% Aktion 6.90 Schweizer Franken statt 10.35 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6998,7 +6998,78 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:04</t>
+          <t>2022-07-18 20:56:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>6996129</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Tela Futura 3-lagig 9 Rollen</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-3-lagig-9-rollen/p/6996129</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Tela</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0.93/1Rol</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Tela Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2022-07-18 20:56:49</t>
         </is>
       </c>
     </row>
